--- a/doc/字典表採番.xlsx
+++ b/doc/字典表採番.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\githubFiles\oa\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8490"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>sys_dictionary</t>
   </si>
@@ -83,46 +78,38 @@
     <t>上场或者非上场</t>
   </si>
   <si>
+    <t>面情结果</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>学历</t>
+  </si>
+  <si>
     <t>页面上用[字典ID]作为隐藏域进行列表的加载。</t>
   </si>
   <si>
-    <t>面情结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>マナー</t>
   </si>
   <si>
     <t>在职情况</t>
   </si>
   <si>
-    <t>hr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>婚姻状况</t>
   </si>
   <si>
-    <t>hr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作意向</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>h</t>
     </r>
     <r>
@@ -130,39 +117,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>r</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否已删除</t>
   </si>
   <si>
-    <r>
-      <t>h</t>
-    </r>
+    <t>材料准备情况</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>r</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料准备情况</t>
-  </si>
-  <si>
-    <r>
       <t>v</t>
     </r>
     <r>
@@ -170,53 +145,54 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>isa</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮寄情况</t>
   </si>
   <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isa</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请材料</t>
+    <t>申请材料是否已准备好</t>
   </si>
   <si>
     <t>visa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自译日文简历</t>
   </si>
   <si>
     <t>简历翻译检查</t>
+  </si>
+  <si>
+    <t>技术评星</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>日语等级</t>
+  </si>
+  <si>
+    <t>技术等级</t>
+  </si>
+  <si>
+    <t>职位</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,36 +201,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,34 +547,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -588,19 +1159,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -614,7 +1185,7 @@
     <col min="15" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="7:11">
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -622,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -657,7 +1228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>1</v>
       </c>
@@ -667,7 +1238,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
@@ -676,10 +1247,10 @@
       <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M4" t="s">
@@ -689,7 +1260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>2</v>
       </c>
@@ -699,10 +1270,10 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M5" t="s">
@@ -712,7 +1283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>3</v>
       </c>
@@ -723,145 +1294,189 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
+      <c r="D22" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -869,29 +1484,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/字典表採番.xlsx
+++ b/doc/字典表採番.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\TEST2\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59414310-E0C1-4775-896D-95F4DEF79AF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>sys_dictionary</t>
   </si>
@@ -181,18 +187,20 @@
   <si>
     <t>职位</t>
   </si>
+  <si>
+    <t>文档模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_document_template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,345 +209,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -547,255 +246,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,74 +262,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B3:D27" totalsRowShown="0">
-  <autoFilter ref="B3:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="B3:D27" totalsRowShown="0">
+  <autoFilter ref="B3:D27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="字典ID"/>
-    <tableColumn id="2" name="字典名称"/>
-    <tableColumn id="3" name="描述/备注"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="字典ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="字典名称"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="描述/备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1159,33 +575,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:11">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1260,7 +676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1283,7 +699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1294,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1305,7 +721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1319,7 +735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1330,7 +746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1341,7 +757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1352,7 +768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1363,7 +779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1374,7 +790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1385,7 +801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1396,7 +812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1407,7 +823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1418,7 +834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1429,7 +845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1440,7 +856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1451,7 +867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1462,7 +878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1473,46 +889,51 @@
         <v>38</v>
       </c>
     </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>